--- a/portfolio/optimization/OpenBB_Parameters_Template v1.0.0.xlsx
+++ b/portfolio/optimization/OpenBB_Parameters_Template v1.0.0.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Dany/portfolio/optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40399F8E-A5B9-E64C-ACD7-B8E86AA22083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042D08D2-3D9C-8E4C-B1D5-6C5472DC3CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-360" windowWidth="38400" windowHeight="21600" xr2:uid="{4E6A10D7-C95B-B048-9E7D-368AD146FDA2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{4E6A10D7-C95B-B048-9E7D-368AD146FDA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimization" sheetId="1" r:id="rId1"/>
-    <sheet name="CONFIG" sheetId="4" r:id="rId2"/>
+    <sheet name="CONFIG" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Config">CONFIG!$A:$R</definedName>
@@ -195,6 +195,1600 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Period to get historic market data from. Possible options are
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: means days, for example '252d' means 252 days
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: means weeks, for example '52w' means 52 weeks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: means months, for example '12mo' means 12 months
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: means years, for example '1y' means 1 year
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ytd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: downloads data from begining of year to today
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: downloads all data available for each asset</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frequency used to calculate returns. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: for daily returns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: for weekly returns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: for monthly returns</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Risk-free rate of borrowing/lending. The period of the risk-free rate must be annual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Significance level of CVaR, EVaR, CDaR and EDaR.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Risk measure used to optimize the portfolio. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Variance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Mean Absolute Deviation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MSV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Semi Variance (Variance of negative returns)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FLPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: First Lower Partial Moment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SLPM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Second Lower Partial Moment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CVaR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Conditional Value at Risk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EVaR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Entropic Value at Risk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Worst Realization
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Average Drawdown of uncompounded returns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ulcer Index of uncompounded returns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CDaR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Conditional Drawdown at Risk of uncompounded returns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EDaR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Entropic Drawdown at Risk of uncompounded returns
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MDD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Maximum Drawdown of uncompounded returns</t>
+    </r>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>Constraint on minimum level of portfolio's return.</t>
+  </si>
+  <si>
+    <t>Constraint on maximum level of portfolio's risk.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method used to estimate covariance matrix. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: historical method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ewma1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: exponential weighted moving average with adjustments
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ewma2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: exponential weighted moving average with no adjustments
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ledoit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Ledoit and Wolf shrinkage method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: oracle shrinkage method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shrunk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: scikit-learn shrunk method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: graphical lasso method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jlogo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: j-logo covariance
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: takes average of eigenvalues above max Marchenko Pastour limit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spectral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: makes zero eigenvalues above max Marchenko Pastour limit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shrink</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Lopez de Prado's book shrinkage method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Method used to estimate the expected return vector. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: historical method
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ewma1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: exponential weighted moving average with adjustments
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ewma2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: exponential weighted moving average with no adjustments</t>
+    </r>
+  </si>
+  <si>
+    <t>Amount to allocate to portfolio in short positions.</t>
+  </si>
+  <si>
+    <t>Amount to allocate to portfolio in long positions.</t>
+  </si>
+  <si>
+    <t>Risk aversion parameter, used when optimizing for maximum utility ('max_util').</t>
+  </si>
+  <si>
+    <t>Risk Parity Optimization</t>
+  </si>
+  <si>
+    <t>Vector of risk contribution constraints.</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Version of relaxed risk parity model. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: without regularization and penalization constraints.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: with regularization constraint but without penalization constraint.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: with regularization and penalization constraints.</t>
+    </r>
+  </si>
+  <si>
+    <t>The penalization factor of penalization constraints. Only used with the C model.</t>
+  </si>
+  <si>
+    <t>When ewma is selected, this smoothing factor is used.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The codependence or similarity matrix used to build the distance metric and clusters. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pearson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: pearson correlation matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>spearman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: spearman correlation matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abs_pearson</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: absolute value of pearson correlation matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abs_spearman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: absolute value of spearman correlation matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: distance correlation matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mutual_info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: mutual information codependence matrix
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: tail index codependence matrix</t>
+    </r>
+  </si>
+  <si>
+    <t>Significance level of CVaR and Tail Gini of gains. If empty it duplicates the 'significance level' parameter.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Linkage method of hierarchical clustering. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>single</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: this is known as the Nearest Point Algorithm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>complete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: this is known as the Farthest Point Algorithm or Voor Hees Algorithm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: this is known as the UPGMA algorithm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weighted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: this is known as the WPGMA algorithm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>centroid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: this is known as the UPGMC algorithm.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ward</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: this is known as the Incremental algorithm
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dbht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: this is known as the Direct Bubble Hierarchical Tree.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Number of bins used to calculate the variation of information. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Knuth's choice method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Freedman–Diaconis' choice method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Scotts' choice method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HGR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Hacine-Gharbi and Ravier' choice method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: integer value choice by user.</t>
+    </r>
+  </si>
+  <si>
+    <t>OpenBB Terminal Portfolio Optimization v1.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Objective function used to optimize the portfolio. Possible values are:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MinRisk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Minimize the selected risk measure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Utility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Maximize the Utility function
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sharpe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Maximize the risk adjusted return ratio based on the selected risk measure.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MaxRet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Maximize the expected return of the portfolio.</t>
+    </r>
+  </si>
+  <si>
+    <t>Optimization Technique</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>technique</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>mktcap</t>
+  </si>
+  <si>
+    <t>dividend</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Value used to replace outliers that are higher to threshold in daily returns.</t>
+  </si>
+  <si>
+    <t>maxsharpe</t>
+  </si>
+  <si>
+    <t>minrisk</t>
+  </si>
+  <si>
+    <t>maxutil</t>
+  </si>
+  <si>
+    <t>maxret</t>
+  </si>
+  <si>
+    <t>maxdiv</t>
+  </si>
+  <si>
+    <t>maxdecorr</t>
+  </si>
+  <si>
+    <t>riskparity</t>
+  </si>
+  <si>
+    <t>relriskparity</t>
+  </si>
+  <si>
+    <t>hrp</t>
+  </si>
+  <si>
+    <t>herc</t>
+  </si>
+  <si>
+    <t>nco</t>
+  </si>
+  <si>
+    <t>ef</t>
+  </si>
+  <si>
+    <t>amount_portfolios</t>
+  </si>
+  <si>
+    <t>random_seed</t>
+  </si>
+  <si>
+    <t>tangency</t>
+  </si>
+  <si>
+    <t>Formatting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adds the optimal line with the risk-free asset when 1 (True).</t>
+  </si>
+  <si>
+    <t>Number of portfolios to simulate.</t>
+  </si>
+  <si>
+    <t>Seed used to generate random portfolios.</t>
+  </si>
+  <si>
+    <t>Black Litterman</t>
+  </si>
+  <si>
+    <t>p_views</t>
+  </si>
+  <si>
+    <t>q_views</t>
+  </si>
+  <si>
+    <t>matrix P of views</t>
+  </si>
+  <si>
+    <t>matrix Q of views</t>
+  </si>
+  <si>
+    <t>Risk aversion factor of Black Litterman model</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>equilibrium</t>
+  </si>
+  <si>
+    <t>If True (1) excess returns are based on equilibrium market portfolio, if False (0) excess returns are calculated as historical returns minus risk free rate.</t>
+  </si>
+  <si>
+    <t>optimize</t>
+  </si>
+  <si>
+    <t>If True (1) Black Litterman estimates are used as inputs of mean variance model, if False (0) returns equilibrium weights from Black Litterman model</t>
+  </si>
+  <si>
+    <t>blacklitterman</t>
+  </si>
+  <si>
+    <t>cvar_simulations_losses</t>
+  </si>
+  <si>
+    <t>cvar_simulations_gains</t>
+  </si>
+  <si>
+    <t>Number of CVaRs used to approximate Tail Gini of gains. If empty, duplicates the 'cvar_simulations_losses' parameter.</t>
+  </si>
+  <si>
+    <t>3y</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Method used to fill nan values in time series. Possible values are:
 </t>
     </r>
@@ -349,1587 +1943,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: spline of third orderbarycentric: builds a polynomial that pass for all points </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Period to get historic market data from. Possible options are
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: means days, for example '252d' means 252 days
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: means weeks, for example '52w' means 52 weeks
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: means months, for example '12mo' means 12 months
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: means years, for example '1y' means 1 year
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ytd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: downloads data from begining of year to today
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: downloads all data available for each asset</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Frequency used to calculate returns. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: for daily returns
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: for weekly returns
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: for monthly returns</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> Risk-free rate of borrowing/lending. The period of the risk-free rate must be annual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Significance level of CVaR, EVaR, CDaR and EDaR.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Risk measure used to optimize the portfolio. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Variance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Mean Absolute Deviation
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MSV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Semi Variance (Variance of negative returns)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FLPM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: First Lower Partial Moment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SLPM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Second Lower Partial Moment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CVaR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Conditional Value at Risk
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EVaR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Entropic Value at Risk
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Worst Realization
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ADD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Average Drawdown of uncompounded returns
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UCI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Ulcer Index of uncompounded returns
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CDaR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:Conditional Drawdown at Risk of uncompounded returns
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EDaR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Entropic Drawdown at Risk of uncompounded returns
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MDD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Maximum Drawdown of uncompounded returns</t>
-    </r>
-  </si>
-  <si>
-    <t>MV</t>
-  </si>
-  <si>
-    <t>Constraint on minimum level of portfolio's return.</t>
-  </si>
-  <si>
-    <t>Constraint on maximum level of portfolio's risk.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Method used to estimate covariance matrix. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: historical method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ewma1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: exponential weighted moving average with adjustments
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ewma2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: exponential weighted moving average with no adjustments
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ledoit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Ledoit and Wolf shrinkage method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: oracle shrinkage method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shrunk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: scikit-learn shrunk method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: graphical lasso method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jlogo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: j-logo covariance
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>fixed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: takes average of eigenvalues above max Marchenko Pastour limit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spectral</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: makes zero eigenvalues above max Marchenko Pastour limit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shrink</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Lopez de Prado's book shrinkage method</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Method used to estimate the expected return vector. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: historical method
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ewma1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: exponential weighted moving average with adjustments
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ewma2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: exponential weighted moving average with no adjustments</t>
-    </r>
-  </si>
-  <si>
-    <t>Amount to allocate to portfolio in short positions.</t>
-  </si>
-  <si>
-    <t>Amount to allocate to portfolio in long positions.</t>
-  </si>
-  <si>
-    <t>Risk aversion parameter, used when optimizing for maximum utility ('max_util').</t>
-  </si>
-  <si>
-    <t>Risk Parity Optimization</t>
-  </si>
-  <si>
-    <t>Vector of risk contribution constraints.</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Version of relaxed risk parity model. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: without regularization and penalization constraints.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: with regularization constraint but without penalization constraint.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: with regularization and penalization constraints.</t>
-    </r>
-  </si>
-  <si>
-    <t>The penalization factor of penalization constraints. Only used with the C model.</t>
-  </si>
-  <si>
-    <t>When ewma is selected, this smoothing factor is used.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The codependence or similarity matrix used to build the distance metric and clusters. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pearson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: pearson correlation matrix
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>spearman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: spearman correlation matrix
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abs_pearson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: absolute value of pearson correlation matrix
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>abs_spearman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: absolute value of spearman correlation matrix
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>distance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: distance correlation matrix
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mutual_info</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: mutual information codependence matrix
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: tail index codependence matrix</t>
-    </r>
-  </si>
-  <si>
-    <t>Significance level of CVaR and Tail Gini of gains. If empty it duplicates the 'significance level' parameter.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linkage method of hierarchical clustering. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>single</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: this is known as the Nearest Point Algorithm.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>complete</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: this is known as the Farthest Point Algorithm or Voor Hees Algorithm.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>average</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: this is known as the UPGMA algorithm.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>weighted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: this is known as the WPGMA algorithm.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>centroid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: this is known as the UPGMC algorithm.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ward</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: this is known as the Incremental algorithm
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dbht</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: this is known as the Direct Bubble Hierarchical Tree.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Number of bins used to calculate the variation of information. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Knuth's choice method.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Freedman–Diaconis' choice method.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Scotts' choice method.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HGR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Hacine-Gharbi and Ravier' choice method.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Integer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: integer value choice by user.</t>
-    </r>
-  </si>
-  <si>
-    <t>OpenBB Terminal Portfolio Optimization v1.0</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Objective function used to optimize the portfolio. Possible values are:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MinRisk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Minimize the selected risk measure.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Utility</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Maximize the Utility function
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sharpe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Maximize the risk adjusted return ratio based on the selected risk measure.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MaxRet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Maximize the expected return of the portfolio.</t>
-    </r>
-  </si>
-  <si>
-    <t>Optimization Technique</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>technique</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>equal</t>
-  </si>
-  <si>
-    <t>mktcap</t>
-  </si>
-  <si>
-    <t>dividend</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Value used to replace outliers that are higher to threshold in daily returns.</t>
-  </si>
-  <si>
-    <t>maxsharpe</t>
-  </si>
-  <si>
-    <t>minrisk</t>
-  </si>
-  <si>
-    <t>maxutil</t>
-  </si>
-  <si>
-    <t>maxret</t>
-  </si>
-  <si>
-    <t>maxdiv</t>
-  </si>
-  <si>
-    <t>maxdecorr</t>
-  </si>
-  <si>
-    <t>riskparity</t>
-  </si>
-  <si>
-    <t>relriskparity</t>
-  </si>
-  <si>
-    <t>hrp</t>
-  </si>
-  <si>
-    <t>herc</t>
-  </si>
-  <si>
-    <t>nco</t>
-  </si>
-  <si>
-    <t>ef</t>
-  </si>
-  <si>
-    <t>amount_portfolios</t>
-  </si>
-  <si>
-    <t>random_seed</t>
-  </si>
-  <si>
-    <t>tangency</t>
-  </si>
-  <si>
-    <t>Formatting</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adds the optimal line with the risk-free asset when 1 (True).</t>
-  </si>
-  <si>
-    <t>Number of portfolios to simulate.</t>
-  </si>
-  <si>
-    <t>Seed used to generate random portfolios.</t>
-  </si>
-  <si>
-    <t>Black Litterman</t>
-  </si>
-  <si>
-    <t>p_views</t>
-  </si>
-  <si>
-    <t>q_views</t>
-  </si>
-  <si>
-    <t>matrix P of views</t>
-  </si>
-  <si>
-    <t>matrix Q of views</t>
-  </si>
-  <si>
-    <t>Risk aversion factor of Black Litterman model</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>equilibrium</t>
-  </si>
-  <si>
-    <t>If True (1) excess returns are based on equilibrium market portfolio, if False (0) excess returns are calculated as historical returns minus risk free rate.</t>
-  </si>
-  <si>
-    <t>optimize</t>
-  </si>
-  <si>
-    <t>If True (1) Black Litterman estimates are used as inputs of mean variance model, if False (0) returns equilibrium weights from Black Litterman model</t>
+      <t xml:space="preserve">: spline of third order
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>barycentric</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: builds a polynomial that pass for all points </t>
+    </r>
   </si>
   <si>
     <r>
@@ -2253,17 +2290,17 @@
         <scheme val="minor"/>
       </rPr>
       <t>io
-he</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rc: builds a hierarchical equal risk contribution portfol</t>
+herc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: builds a hierarchical equal risk contribution portfol</t>
     </r>
     <r>
       <rPr>
@@ -2287,21 +2324,6 @@
       </rPr>
       <t>: builds a nested clustered optimization portfolio</t>
     </r>
-  </si>
-  <si>
-    <t>blacklitterman</t>
-  </si>
-  <si>
-    <t>cvar_simulations_losses</t>
-  </si>
-  <si>
-    <t>cvar_simulations_gains</t>
-  </si>
-  <si>
-    <t>Number of CVaRs used to approximate Tail Gini of gains. If empty, duplicates the 'cvar_simulations_losses' parameter.</t>
-  </si>
-  <si>
-    <t>3y</t>
   </si>
 </sst>
 </file>
@@ -2777,12 +2799,12 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3176,8 +3198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D68F2FA-964B-DB41-A4DF-DD4A2F7AD4F5}">
   <dimension ref="A1:XFC57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3197,23 +3219,23 @@
       <c r="D1"/>
     </row>
     <row r="2" spans="2:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="41"/>
+      <c r="C2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="119" x14ac:dyDescent="0.2">
@@ -3221,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B4,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3280,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B8,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3310,14 +3332,14 @@
         <v>0.3</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B10,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="153" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3347,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="E11" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B11,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3340,7 +3362,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B12,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3355,7 +3377,7 @@
         <v>0.05</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B13,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3371,10 +3393,10 @@
     </row>
     <row r="15" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>78</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>27</v>
@@ -3386,13 +3408,13 @@
     </row>
     <row r="16" spans="2:5" ht="290" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E16" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B16,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3411,7 +3433,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>27</v>
@@ -3426,10 +3448,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B19,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3440,11 +3462,11 @@
       <c r="B20" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>-1</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B20,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3459,7 +3481,7 @@
         <v>-1</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B21,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3474,7 +3496,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B22,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3489,7 +3511,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B23,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3504,7 +3526,7 @@
         <v>0.94</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B24,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3519,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B25,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3534,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B26,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3549,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B27,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3558,13 +3580,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="31">
         <v>100</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B28,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3573,13 +3595,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="31">
         <v>123</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B29,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3588,13 +3610,13 @@
     </row>
     <row r="30" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="38">
         <v>0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E30" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B30,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3611,10 +3633,10 @@
     </row>
     <row r="32" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>27</v>
@@ -3630,7 +3652,7 @@
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B33,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3642,10 +3664,10 @@
         <v>23</v>
       </c>
       <c r="C34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="E34" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B34,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3660,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B35,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3676,10 +3698,10 @@
     </row>
     <row r="37" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="27" t="s">
         <v>27</v>
@@ -3691,11 +3713,11 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="40"/>
       <c r="D38" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B38,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3704,11 +3726,11 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E39" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B39,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3717,11 +3739,11 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C40" s="31"/>
       <c r="D40" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B40,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3730,13 +3752,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C41" s="31">
         <v>1</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B41,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3745,13 +3767,13 @@
     </row>
     <row r="42" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" s="38">
         <v>1</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B42,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3770,7 +3792,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>27</v>
@@ -3788,7 +3810,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B45,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3797,7 +3819,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C46" s="31">
         <v>100</v>
@@ -3812,14 +3834,14 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" s="31">
         <f>C46</f>
         <v>100</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E47" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B47,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3835,7 +3857,7 @@
         <v>0.05</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B48,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3850,7 +3872,7 @@
         <v>31</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E49" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B49,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3896,7 +3918,7 @@
         <v>37</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E52" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B52,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -3941,7 +3963,7 @@
         <v>43</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(B55,CONFIG!$B:$Z,MATCH($C$16,CONFIG!$B$1:$Z$1,0),FALSE),"")</f>
@@ -4019,7 +4041,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="B14" sqref="B14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4044,58 +4066,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -4107,52 +4129,52 @@
         <v>21</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -4164,52 +4186,52 @@
         <v>11</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -4221,52 +4243,52 @@
         <v>12</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -4278,52 +4300,52 @@
         <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -4335,52 +4357,52 @@
         <v>15</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -4392,52 +4414,52 @@
         <v>45</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N7" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -4449,52 +4471,52 @@
         <v>16</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R8" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -4506,52 +4528,52 @@
         <v>17</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -4563,52 +4585,52 @@
         <v>18</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R10" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -4617,55 +4639,55 @@
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -4674,55 +4696,55 @@
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -4731,55 +4753,55 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -4791,52 +4813,52 @@
         <v>22</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O14" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R14" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -4848,52 +4870,52 @@
         <v>23</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -4905,52 +4927,52 @@
         <v>24</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O16" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -4959,55 +4981,55 @@
         <v>17</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R17" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -5016,55 +5038,55 @@
         <v>18</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -5073,55 +5095,55 @@
         <v>19</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -5130,55 +5152,55 @@
         <v>20</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -5187,55 +5209,55 @@
         <v>21</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R21" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -5247,52 +5269,52 @@
         <v>25</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O22" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R22" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -5301,55 +5323,55 @@
         <v>23</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O23" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R23" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -5358,55 +5380,55 @@
         <v>24</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P24" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -5418,52 +5440,52 @@
         <v>28</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P25" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -5475,52 +5497,52 @@
         <v>30</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -5532,52 +5554,52 @@
         <v>34</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R27" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -5589,52 +5611,52 @@
         <v>33</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R28" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -5646,52 +5668,52 @@
         <v>36</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -5703,52 +5725,52 @@
         <v>38</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O30" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
@@ -5760,52 +5782,52 @@
         <v>40</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R31" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
@@ -5817,52 +5839,52 @@
         <v>42</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M32" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q32" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R32" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
